--- a/Code/Results/Cases/Case_2_207/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_207/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9973871678907219</v>
+        <v>1.031778115542896</v>
       </c>
       <c r="D2">
-        <v>1.01869113991104</v>
+        <v>1.038426189428138</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.018459973177425</v>
+        <v>1.045800229202027</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046002156000409</v>
+        <v>1.034042715545769</v>
       </c>
       <c r="J2">
-        <v>1.019646310160868</v>
+        <v>1.03691196855805</v>
       </c>
       <c r="K2">
-        <v>1.029896076975598</v>
+        <v>1.041214256548334</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.029667984959588</v>
+        <v>1.048567453214847</v>
       </c>
       <c r="N2">
-        <v>1.010308956288973</v>
+        <v>1.016258034379948</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003240654737777</v>
+        <v>1.032961315894502</v>
       </c>
       <c r="D3">
-        <v>1.023142472288442</v>
+        <v>1.03933245167287</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.023737054498317</v>
+        <v>1.046913731014561</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047766223421277</v>
+        <v>1.034294619022018</v>
       </c>
       <c r="J3">
-        <v>1.02364336440229</v>
+        <v>1.037735997832815</v>
       </c>
       <c r="K3">
-        <v>1.033487562203538</v>
+        <v>1.041930275377215</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.034074963327233</v>
+        <v>1.04949168310873</v>
       </c>
       <c r="N3">
-        <v>1.011651489314031</v>
+        <v>1.016532813293706</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006930023912482</v>
+        <v>1.033726250703905</v>
       </c>
       <c r="D4">
-        <v>1.025949143844403</v>
+        <v>1.039917984252775</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.027068294116732</v>
+        <v>1.047633801466016</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048862308245185</v>
+        <v>1.034455478891843</v>
       </c>
       <c r="J4">
-        <v>1.026158104981005</v>
+        <v>1.038268027024839</v>
       </c>
       <c r="K4">
-        <v>1.035744156893023</v>
+        <v>1.042392080982285</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.036850646587712</v>
+        <v>1.050088697163579</v>
       </c>
       <c r="N4">
-        <v>1.01249590200458</v>
+        <v>1.016710151830503</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008458578166502</v>
+        <v>1.034047669713773</v>
       </c>
       <c r="D5">
-        <v>1.027112153162879</v>
+        <v>1.040163932190602</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.028449638657151</v>
+        <v>1.047936414909234</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049312575513817</v>
+        <v>1.034522592573925</v>
       </c>
       <c r="J5">
-        <v>1.027198853497649</v>
+        <v>1.03849141234657</v>
       </c>
       <c r="K5">
-        <v>1.036677328419212</v>
+        <v>1.042585864092952</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.03800010535311</v>
+        <v>1.050339437541076</v>
       </c>
       <c r="N5">
-        <v>1.012845307538588</v>
+        <v>1.016784594709881</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008713941767552</v>
+        <v>1.034101628079578</v>
       </c>
       <c r="D6">
-        <v>1.027306455500353</v>
+        <v>1.040205215637856</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.028680475735921</v>
+        <v>1.04798721896035</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049387569486634</v>
+        <v>1.034533831248289</v>
       </c>
       <c r="J6">
-        <v>1.027372654632046</v>
+        <v>1.038528903350078</v>
       </c>
       <c r="K6">
-        <v>1.036833120294462</v>
+        <v>1.042618380040935</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.038192102502491</v>
+        <v>1.050381523652928</v>
       </c>
       <c r="N6">
-        <v>1.012903653153999</v>
+        <v>1.016797087541301</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00695053541905</v>
+        <v>1.033730546145032</v>
       </c>
       <c r="D7">
-        <v>1.025964749587498</v>
+        <v>1.039921271445388</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.027086825704888</v>
+        <v>1.047637845409667</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04886836567012</v>
+        <v>1.034456377679026</v>
       </c>
       <c r="J7">
-        <v>1.0261720752555</v>
+        <v>1.038271013008412</v>
       </c>
       <c r="K7">
-        <v>1.035756686094634</v>
+        <v>1.042394671735297</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.036866073291766</v>
+        <v>1.050092048527699</v>
       </c>
       <c r="N7">
-        <v>1.012500592431512</v>
+        <v>1.016711146972692</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9993863811426297</v>
+        <v>1.032178124597538</v>
       </c>
       <c r="D8">
-        <v>1.020211180732154</v>
+        <v>1.038732647534055</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.020261185227135</v>
+        <v>1.046176634049444</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046607939267341</v>
+        <v>1.034128290399823</v>
       </c>
       <c r="J8">
-        <v>1.021012398163611</v>
+        <v>1.037190696581243</v>
       </c>
       <c r="K8">
-        <v>1.031124165132766</v>
+        <v>1.041456550801285</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.03117352548541</v>
+        <v>1.048880013728158</v>
       </c>
       <c r="N8">
-        <v>1.010767846300272</v>
+        <v>1.016350993007652</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9852534163398098</v>
+        <v>1.029437299960989</v>
       </c>
       <c r="D9">
-        <v>1.009473977075973</v>
+        <v>1.036631372954847</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.00755339073251</v>
+        <v>1.043598375737581</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042260690097738</v>
+        <v>1.033533772178495</v>
       </c>
       <c r="J9">
-        <v>1.011337881336206</v>
+        <v>1.035278011164725</v>
       </c>
       <c r="K9">
-        <v>1.022415193169366</v>
+        <v>1.039791892487459</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.02052509672258</v>
+        <v>1.046736364250977</v>
       </c>
       <c r="N9">
-        <v>1.007517203926467</v>
+        <v>1.015712804561652</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9752116869223795</v>
+        <v>1.027606417817292</v>
       </c>
       <c r="D10">
-        <v>1.001860277609915</v>
+        <v>1.035225927416253</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9985607672665217</v>
+        <v>1.041877165827511</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03909245360435</v>
+        <v>1.033126395845543</v>
       </c>
       <c r="J10">
-        <v>1.004444523079884</v>
+        <v>1.033996747194958</v>
       </c>
       <c r="K10">
-        <v>1.016196025206483</v>
+        <v>1.038674293942421</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.012956056218201</v>
+        <v>1.045301896569254</v>
       </c>
       <c r="N10">
-        <v>1.005200222478494</v>
+        <v>1.015284936840884</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9706964912999723</v>
+        <v>1.026812726365276</v>
       </c>
       <c r="D11">
-        <v>0.9984420671882587</v>
+        <v>1.034616252530305</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9945273772389429</v>
+        <v>1.041131283009985</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037650142173513</v>
+        <v>1.032947377298089</v>
       </c>
       <c r="J11">
-        <v>1.001341267793387</v>
+        <v>1.033440472960509</v>
       </c>
       <c r="K11">
-        <v>1.013393423766831</v>
+        <v>1.038188493459455</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.009553242472221</v>
+        <v>1.044679467702525</v>
       </c>
       <c r="N11">
-        <v>1.004157052602084</v>
+        <v>1.015099089017827</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9689923355044988</v>
+        <v>1.026517775006721</v>
       </c>
       <c r="D12">
-        <v>0.997152879364111</v>
+        <v>1.034389624600314</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9930067152386554</v>
+        <v>1.04085413900242</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037103212822299</v>
+        <v>1.032880487510105</v>
       </c>
       <c r="J12">
-        <v>1.000169543858288</v>
+        <v>1.033233624288922</v>
       </c>
       <c r="K12">
-        <v>1.012334829746961</v>
+        <v>1.038007763012203</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.008269133267135</v>
+        <v>1.044448073917383</v>
       </c>
       <c r="N12">
-        <v>1.003763164451106</v>
+        <v>1.015029969505411</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9693591378789875</v>
+        <v>1.026581049408391</v>
       </c>
       <c r="D13">
-        <v>0.9974303192582975</v>
+        <v>1.034438244659826</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9933339457841861</v>
+        <v>1.04091359142842</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037221047841808</v>
+        <v>1.032894853447696</v>
       </c>
       <c r="J13">
-        <v>1.000421765539614</v>
+        <v>1.033278004176602</v>
       </c>
       <c r="K13">
-        <v>1.012562716432822</v>
+        <v>1.038046543109475</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.008545513598009</v>
+        <v>1.04449771756218</v>
       </c>
       <c r="N13">
-        <v>1.003847951889773</v>
+        <v>1.015044799836207</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9705561880251127</v>
+        <v>1.026788348445421</v>
       </c>
       <c r="D14">
-        <v>0.9983359083504085</v>
+        <v>1.034597522819013</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9944021467794382</v>
+        <v>1.041108376043747</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037605164835709</v>
+        <v>1.032941856213982</v>
       </c>
       <c r="J14">
-        <v>1.001244808751758</v>
+        <v>1.033423379356131</v>
       </c>
       <c r="K14">
-        <v>1.01330628554381</v>
+        <v>1.038173559994174</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.009447516798213</v>
+        <v>1.044660344626639</v>
       </c>
       <c r="N14">
-        <v>1.004124626954261</v>
+        <v>1.01509337736218</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9712900903637803</v>
+        <v>1.026916053722454</v>
       </c>
       <c r="D15">
-        <v>0.9988912460206198</v>
+        <v>1.034695637116562</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9950572736608895</v>
+        <v>1.04122837730939</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03784032993011</v>
+        <v>1.032970763904557</v>
       </c>
       <c r="J15">
-        <v>1.001749350736405</v>
+        <v>1.033512920120088</v>
       </c>
       <c r="K15">
-        <v>1.013762058072945</v>
+        <v>1.038251781818519</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.010000558681466</v>
+        <v>1.044760518514207</v>
       </c>
       <c r="N15">
-        <v>1.004294233337302</v>
+        <v>1.015123295989328</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9755076669924783</v>
+        <v>1.027659073158119</v>
       </c>
       <c r="D16">
-        <v>1.002084469113446</v>
+        <v>1.035266366098092</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9988253841464183</v>
+        <v>1.041926655094376</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039186640411394</v>
+        <v>1.033138221441053</v>
       </c>
       <c r="J16">
-        <v>1.004647877732929</v>
+        <v>1.034033634003922</v>
       </c>
       <c r="K16">
-        <v>1.016379622131205</v>
+        <v>1.038706495363817</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.013179138868465</v>
+        <v>1.045343177718157</v>
       </c>
       <c r="N16">
-        <v>1.00526857916993</v>
+        <v>1.015297258724642</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9781072244354897</v>
+        <v>1.028124904790356</v>
       </c>
       <c r="D17">
-        <v>1.004054126170478</v>
+        <v>1.035624071968092</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>1.001150638969835</v>
+        <v>1.04236450783699</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040011875289919</v>
+        <v>1.033242560879407</v>
       </c>
       <c r="J17">
-        <v>1.006433507418976</v>
+        <v>1.034359867160848</v>
       </c>
       <c r="K17">
-        <v>1.017991443317773</v>
+        <v>1.038991222925812</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.015138523351045</v>
+        <v>1.045708316746418</v>
       </c>
       <c r="N17">
-        <v>1.005868798425783</v>
+        <v>1.015406225796401</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9796075224464356</v>
+        <v>1.02839652913278</v>
       </c>
       <c r="D18">
-        <v>1.005191369795535</v>
+        <v>1.035832608951279</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>1.002493568896425</v>
+        <v>1.042619843355412</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040486468075435</v>
+        <v>1.033303167361894</v>
       </c>
       <c r="J18">
-        <v>1.007463703336698</v>
+        <v>1.034550010895065</v>
       </c>
       <c r="K18">
-        <v>1.018921091096889</v>
+        <v>1.039157119062462</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.016269398464112</v>
+        <v>1.045921171325326</v>
       </c>
       <c r="N18">
-        <v>1.006215076273618</v>
+        <v>1.015469728683327</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9801164297748991</v>
+        <v>1.028489131275649</v>
       </c>
       <c r="D19">
-        <v>1.005577205383912</v>
+        <v>1.035903696591434</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.002949252320706</v>
+        <v>1.042706896620945</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040647164040384</v>
+        <v>1.033323789714271</v>
       </c>
       <c r="J19">
-        <v>1.007813087445544</v>
+        <v>1.034614820861826</v>
       </c>
       <c r="K19">
-        <v>1.019236327816857</v>
+        <v>1.039213654752929</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.016653000036848</v>
+        <v>1.045993728104317</v>
       </c>
       <c r="N19">
-        <v>1.006332512050241</v>
+        <v>1.01549137208262</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.977829982595593</v>
+        <v>1.028074934522273</v>
       </c>
       <c r="D20">
-        <v>1.003844011710221</v>
+        <v>1.035585704569183</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>1.000902552684044</v>
+        <v>1.042317536246621</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039924038064394</v>
+        <v>1.033231392412016</v>
       </c>
       <c r="J20">
-        <v>1.006243106981107</v>
+        <v>1.034324880186764</v>
       </c>
       <c r="K20">
-        <v>1.017819603905375</v>
+        <v>1.038960693045733</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.014929550334963</v>
+        <v>1.045669153708379</v>
       </c>
       <c r="N20">
-        <v>1.005804798547337</v>
+        <v>1.015394540432371</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9702044485766644</v>
+        <v>1.026727307904949</v>
       </c>
       <c r="D21">
-        <v>0.9980697843924481</v>
+        <v>1.034550624004756</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9940882217678993</v>
+        <v>1.041051019324895</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037492366053511</v>
+        <v>1.032928025959624</v>
       </c>
       <c r="J21">
-        <v>1.001002979225344</v>
+        <v>1.0333805761754</v>
       </c>
       <c r="K21">
-        <v>1.013087817806034</v>
+        <v>1.038136164495467</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.009182466890815</v>
+        <v>1.044612460431531</v>
       </c>
       <c r="N21">
-        <v>1.0040433334786</v>
+        <v>1.015079074906851</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9652525987125767</v>
+        <v>1.025879195927096</v>
       </c>
       <c r="D22">
-        <v>0.9943256828090175</v>
+        <v>1.033898857921449</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9896728443918048</v>
+        <v>1.040254188799709</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035898385023722</v>
+        <v>1.032735005752509</v>
       </c>
       <c r="J22">
-        <v>0.9975974472402237</v>
+        <v>1.032785560010174</v>
       </c>
       <c r="K22">
-        <v>1.010010393395838</v>
+        <v>1.037616115539446</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.005451698334382</v>
+        <v>1.04394694075933</v>
       </c>
       <c r="N22">
-        <v>1.002898516996086</v>
+        <v>1.014880223555408</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9678932767616433</v>
+        <v>1.026328873400693</v>
       </c>
       <c r="D23">
-        <v>0.9963217289698793</v>
+        <v>1.034244463761272</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9920264788385791</v>
+        <v>1.040676653682632</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036749773605161</v>
+        <v>1.03283754583508</v>
       </c>
       <c r="J23">
-        <v>0.9994137436145376</v>
+        <v>1.033101112579679</v>
       </c>
       <c r="K23">
-        <v>1.011651896856643</v>
+        <v>1.037891958703987</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.007441047972158</v>
+        <v>1.044299853371129</v>
       </c>
       <c r="N23">
-        <v>1.00350909209968</v>
+        <v>1.014985686509934</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9779553054903464</v>
+        <v>1.02809751420541</v>
       </c>
       <c r="D24">
-        <v>1.003938989218542</v>
+        <v>1.035603041475341</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.001014693346948</v>
+        <v>1.042338760861345</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039963748748726</v>
+        <v>1.033236439743302</v>
       </c>
       <c r="J24">
-        <v>1.006329175669033</v>
+        <v>1.034340689734842</v>
       </c>
       <c r="K24">
-        <v>1.017897283106092</v>
+        <v>1.03897448874259</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.015024013234218</v>
+        <v>1.045686850185318</v>
       </c>
       <c r="N24">
-        <v>1.005833729111581</v>
+        <v>1.015399820717703</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9890101136825815</v>
+        <v>1.030146505380753</v>
       </c>
       <c r="D25">
-        <v>1.012325923345251</v>
+        <v>1.03717540941931</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.010925452297025</v>
+        <v>1.044265329768952</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04343016810831</v>
+        <v>1.033689412622373</v>
       </c>
       <c r="J25">
-        <v>1.013913077429331</v>
+        <v>1.035773563341537</v>
       </c>
       <c r="K25">
-        <v>1.024735861774643</v>
+        <v>1.040223622446544</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.023356499546181</v>
+        <v>1.047291490441604</v>
       </c>
       <c r="N25">
-        <v>1.008382634902921</v>
+        <v>1.015878214562136</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_207/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_207/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031778115542896</v>
+        <v>0.9973871678907212</v>
       </c>
       <c r="D2">
-        <v>1.038426189428138</v>
+        <v>1.018691139911039</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.045800229202027</v>
+        <v>1.018459973177424</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034042715545769</v>
+        <v>1.046002156000409</v>
       </c>
       <c r="J2">
-        <v>1.03691196855805</v>
+        <v>1.019646310160867</v>
       </c>
       <c r="K2">
-        <v>1.041214256548334</v>
+        <v>1.029896076975597</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.048567453214847</v>
+        <v>1.029667984959587</v>
       </c>
       <c r="N2">
-        <v>1.016258034379948</v>
+        <v>1.010308956288972</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032961315894502</v>
+        <v>1.003240654737777</v>
       </c>
       <c r="D3">
-        <v>1.03933245167287</v>
+        <v>1.023142472288443</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.046913731014561</v>
+        <v>1.023737054498318</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034294619022018</v>
+        <v>1.047766223421277</v>
       </c>
       <c r="J3">
-        <v>1.037735997832815</v>
+        <v>1.02364336440229</v>
       </c>
       <c r="K3">
-        <v>1.041930275377215</v>
+        <v>1.033487562203538</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.04949168310873</v>
+        <v>1.034074963327233</v>
       </c>
       <c r="N3">
-        <v>1.016532813293706</v>
+        <v>1.011651489314031</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033726250703905</v>
+        <v>1.006930023912482</v>
       </c>
       <c r="D4">
-        <v>1.039917984252775</v>
+        <v>1.025949143844402</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.047633801466016</v>
+        <v>1.027068294116731</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034455478891843</v>
+        <v>1.048862308245185</v>
       </c>
       <c r="J4">
-        <v>1.038268027024839</v>
+        <v>1.026158104981004</v>
       </c>
       <c r="K4">
-        <v>1.042392080982285</v>
+        <v>1.035744156893023</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.050088697163579</v>
+        <v>1.036850646587711</v>
       </c>
       <c r="N4">
-        <v>1.016710151830503</v>
+        <v>1.012495902004579</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034047669713773</v>
+        <v>1.008458578166501</v>
       </c>
       <c r="D5">
-        <v>1.040163932190602</v>
+        <v>1.027112153162878</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.047936414909234</v>
+        <v>1.02844963865715</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034522592573925</v>
+        <v>1.049312575513816</v>
       </c>
       <c r="J5">
-        <v>1.03849141234657</v>
+        <v>1.027198853497648</v>
       </c>
       <c r="K5">
-        <v>1.042585864092952</v>
+        <v>1.036677328419211</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.050339437541076</v>
+        <v>1.038000105353109</v>
       </c>
       <c r="N5">
-        <v>1.016784594709881</v>
+        <v>1.012845307538588</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034101628079578</v>
+        <v>1.008713941767553</v>
       </c>
       <c r="D6">
-        <v>1.040205215637856</v>
+        <v>1.027306455500354</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.04798721896035</v>
+        <v>1.028680475735923</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034533831248289</v>
+        <v>1.049387569486635</v>
       </c>
       <c r="J6">
-        <v>1.038528903350078</v>
+        <v>1.027372654632047</v>
       </c>
       <c r="K6">
-        <v>1.042618380040935</v>
+        <v>1.036833120294463</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.050381523652928</v>
+        <v>1.038192102502493</v>
       </c>
       <c r="N6">
-        <v>1.016797087541301</v>
+        <v>1.012903653153999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033730546145032</v>
+        <v>1.00695053541905</v>
       </c>
       <c r="D7">
-        <v>1.039921271445388</v>
+        <v>1.025964749587497</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.047637845409667</v>
+        <v>1.027086825704887</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034456377679026</v>
+        <v>1.048868365670119</v>
       </c>
       <c r="J7">
-        <v>1.038271013008412</v>
+        <v>1.026172075255499</v>
       </c>
       <c r="K7">
-        <v>1.042394671735297</v>
+        <v>1.035756686094633</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.050092048527699</v>
+        <v>1.036866073291765</v>
       </c>
       <c r="N7">
-        <v>1.016711146972692</v>
+        <v>1.012500592431512</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032178124597538</v>
+        <v>0.9993863811426313</v>
       </c>
       <c r="D8">
-        <v>1.038732647534055</v>
+        <v>1.020211180732156</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.046176634049444</v>
+        <v>1.020261185227136</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034128290399823</v>
+        <v>1.046607939267342</v>
       </c>
       <c r="J8">
-        <v>1.037190696581243</v>
+        <v>1.021012398163613</v>
       </c>
       <c r="K8">
-        <v>1.041456550801285</v>
+        <v>1.031124165132767</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.048880013728158</v>
+        <v>1.031173525485412</v>
       </c>
       <c r="N8">
-        <v>1.016350993007652</v>
+        <v>1.010767846300273</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029437299960989</v>
+        <v>0.9852534163398099</v>
       </c>
       <c r="D9">
-        <v>1.036631372954847</v>
+        <v>1.009473977075974</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.043598375737581</v>
+        <v>1.00755339073251</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033533772178495</v>
+        <v>1.042260690097738</v>
       </c>
       <c r="J9">
-        <v>1.035278011164725</v>
+        <v>1.011337881336206</v>
       </c>
       <c r="K9">
-        <v>1.039791892487459</v>
+        <v>1.022415193169366</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.046736364250977</v>
+        <v>1.02052509672258</v>
       </c>
       <c r="N9">
-        <v>1.015712804561652</v>
+        <v>1.007517203926467</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027606417817292</v>
+        <v>0.9752116869223783</v>
       </c>
       <c r="D10">
-        <v>1.035225927416253</v>
+        <v>1.001860277609915</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.041877165827511</v>
+        <v>0.998560767266521</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033126395845543</v>
+        <v>1.03909245360435</v>
       </c>
       <c r="J10">
-        <v>1.033996747194958</v>
+        <v>1.004444523079883</v>
       </c>
       <c r="K10">
-        <v>1.038674293942421</v>
+        <v>1.016196025206483</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.045301896569254</v>
+        <v>1.012956056218201</v>
       </c>
       <c r="N10">
-        <v>1.015284936840884</v>
+        <v>1.005200222478494</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026812726365276</v>
+        <v>0.9706964912999723</v>
       </c>
       <c r="D11">
-        <v>1.034616252530305</v>
+        <v>0.9984420671882588</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.041131283009985</v>
+        <v>0.9945273772389427</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032947377298089</v>
+        <v>1.037650142173513</v>
       </c>
       <c r="J11">
-        <v>1.033440472960509</v>
+        <v>1.001341267793387</v>
       </c>
       <c r="K11">
-        <v>1.038188493459455</v>
+        <v>1.013393423766831</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.044679467702525</v>
+        <v>1.00955324247222</v>
       </c>
       <c r="N11">
-        <v>1.015099089017827</v>
+        <v>1.004157052602084</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026517775006721</v>
+        <v>0.9689923355044977</v>
       </c>
       <c r="D12">
-        <v>1.034389624600314</v>
+        <v>0.9971528793641099</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.04085413900242</v>
+        <v>0.9930067152386542</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032880487510105</v>
+        <v>1.037103212822298</v>
       </c>
       <c r="J12">
-        <v>1.033233624288922</v>
+        <v>1.000169543858286</v>
       </c>
       <c r="K12">
-        <v>1.038007763012203</v>
+        <v>1.012334829746959</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.044448073917383</v>
+        <v>1.008269133267134</v>
       </c>
       <c r="N12">
-        <v>1.015029969505411</v>
+        <v>1.003763164451105</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026581049408391</v>
+        <v>0.969359137878988</v>
       </c>
       <c r="D13">
-        <v>1.034438244659826</v>
+        <v>0.9974303192582977</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.04091359142842</v>
+        <v>0.9933339457841864</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032894853447696</v>
+        <v>1.037221047841808</v>
       </c>
       <c r="J13">
-        <v>1.033278004176602</v>
+        <v>1.000421765539614</v>
       </c>
       <c r="K13">
-        <v>1.038046543109475</v>
+        <v>1.012562716432822</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.04449771756218</v>
+        <v>1.008545513598009</v>
       </c>
       <c r="N13">
-        <v>1.015044799836207</v>
+        <v>1.003847951889773</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026788348445421</v>
+        <v>0.9705561880251129</v>
       </c>
       <c r="D14">
-        <v>1.034597522819013</v>
+        <v>0.9983359083504083</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.041108376043747</v>
+        <v>0.9944021467794384</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032941856213982</v>
+        <v>1.037605164835709</v>
       </c>
       <c r="J14">
-        <v>1.033423379356131</v>
+        <v>1.001244808751758</v>
       </c>
       <c r="K14">
-        <v>1.038173559994174</v>
+        <v>1.01330628554381</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.044660344626639</v>
+        <v>1.009447516798214</v>
       </c>
       <c r="N14">
-        <v>1.01509337736218</v>
+        <v>1.004124626954261</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026916053722454</v>
+        <v>0.9712900903637794</v>
       </c>
       <c r="D15">
-        <v>1.034695637116562</v>
+        <v>0.9988912460206194</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.04122837730939</v>
+        <v>0.9950572736608888</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032970763904557</v>
+        <v>1.03784032993011</v>
       </c>
       <c r="J15">
-        <v>1.033512920120088</v>
+        <v>1.001749350736404</v>
       </c>
       <c r="K15">
-        <v>1.038251781818519</v>
+        <v>1.013762058072944</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.044760518514207</v>
+        <v>1.010000558681465</v>
       </c>
       <c r="N15">
-        <v>1.015123295989328</v>
+        <v>1.004294233337302</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027659073158119</v>
+        <v>0.9755076669924783</v>
       </c>
       <c r="D16">
-        <v>1.035266366098092</v>
+        <v>1.002084469113447</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.041926655094376</v>
+        <v>0.9988253841464183</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033138221441053</v>
+        <v>1.039186640411394</v>
       </c>
       <c r="J16">
-        <v>1.034033634003922</v>
+        <v>1.004647877732929</v>
       </c>
       <c r="K16">
-        <v>1.038706495363817</v>
+        <v>1.016379622131205</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.045343177718157</v>
+        <v>1.013179138868465</v>
       </c>
       <c r="N16">
-        <v>1.015297258724642</v>
+        <v>1.00526857916993</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028124904790356</v>
+        <v>0.9781072244354887</v>
       </c>
       <c r="D17">
-        <v>1.035624071968092</v>
+        <v>1.004054126170477</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.04236450783699</v>
+        <v>1.001150638969834</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033242560879407</v>
+        <v>1.040011875289919</v>
       </c>
       <c r="J17">
-        <v>1.034359867160848</v>
+        <v>1.006433507418975</v>
       </c>
       <c r="K17">
-        <v>1.038991222925812</v>
+        <v>1.017991443317772</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.045708316746418</v>
+        <v>1.015138523351045</v>
       </c>
       <c r="N17">
-        <v>1.015406225796401</v>
+        <v>1.005868798425782</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02839652913278</v>
+        <v>0.979607522446436</v>
       </c>
       <c r="D18">
-        <v>1.035832608951279</v>
+        <v>1.005191369795535</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.042619843355412</v>
+        <v>1.002493568896426</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033303167361894</v>
+        <v>1.040486468075436</v>
       </c>
       <c r="J18">
-        <v>1.034550010895065</v>
+        <v>1.007463703336698</v>
       </c>
       <c r="K18">
-        <v>1.039157119062462</v>
+        <v>1.01892109109689</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.045921171325326</v>
+        <v>1.016269398464112</v>
       </c>
       <c r="N18">
-        <v>1.015469728683327</v>
+        <v>1.006215076273618</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028489131275649</v>
+        <v>0.980116429774898</v>
       </c>
       <c r="D19">
-        <v>1.035903696591434</v>
+        <v>1.00557720538391</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.042706896620945</v>
+        <v>1.002949252320706</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033323789714271</v>
+        <v>1.040647164040383</v>
       </c>
       <c r="J19">
-        <v>1.034614820861826</v>
+        <v>1.007813087445543</v>
       </c>
       <c r="K19">
-        <v>1.039213654752929</v>
+        <v>1.019236327816856</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.045993728104317</v>
+        <v>1.016653000036847</v>
       </c>
       <c r="N19">
-        <v>1.01549137208262</v>
+        <v>1.006332512050241</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028074934522273</v>
+        <v>0.9778299825955941</v>
       </c>
       <c r="D20">
-        <v>1.035585704569183</v>
+        <v>1.003844011710222</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.042317536246621</v>
+        <v>1.000902552684045</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033231392412016</v>
+        <v>1.039924038064395</v>
       </c>
       <c r="J20">
-        <v>1.034324880186764</v>
+        <v>1.006243106981108</v>
       </c>
       <c r="K20">
-        <v>1.038960693045733</v>
+        <v>1.017819603905376</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.045669153708379</v>
+        <v>1.014929550334965</v>
       </c>
       <c r="N20">
-        <v>1.015394540432371</v>
+        <v>1.005804798547337</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026727307904949</v>
+        <v>0.9702044485766641</v>
       </c>
       <c r="D21">
-        <v>1.034550624004756</v>
+        <v>0.9980697843924478</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.041051019324895</v>
+        <v>0.994088221767899</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032928025959624</v>
+        <v>1.03749236605351</v>
       </c>
       <c r="J21">
-        <v>1.0333805761754</v>
+        <v>1.001002979225343</v>
       </c>
       <c r="K21">
-        <v>1.038136164495467</v>
+        <v>1.013087817806034</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.044612460431531</v>
+        <v>1.009182466890814</v>
       </c>
       <c r="N21">
-        <v>1.015079074906851</v>
+        <v>1.0040433334786</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025879195927096</v>
+        <v>0.9652525987125776</v>
       </c>
       <c r="D22">
-        <v>1.033898857921449</v>
+        <v>0.9943256828090185</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.040254188799709</v>
+        <v>0.989672844391806</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032735005752509</v>
+        <v>1.035898385023722</v>
       </c>
       <c r="J22">
-        <v>1.032785560010174</v>
+        <v>0.9975974472402245</v>
       </c>
       <c r="K22">
-        <v>1.037616115539446</v>
+        <v>1.010010393395839</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.04394694075933</v>
+        <v>1.005451698334383</v>
       </c>
       <c r="N22">
-        <v>1.014880223555408</v>
+        <v>1.002898516996086</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026328873400693</v>
+        <v>0.9678932767616437</v>
       </c>
       <c r="D23">
-        <v>1.034244463761272</v>
+        <v>0.9963217289698797</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.040676653682632</v>
+        <v>0.9920264788385793</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03283754583508</v>
+        <v>1.036749773605162</v>
       </c>
       <c r="J23">
-        <v>1.033101112579679</v>
+        <v>0.9994137436145381</v>
       </c>
       <c r="K23">
-        <v>1.037891958703987</v>
+        <v>1.011651896856644</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.044299853371129</v>
+        <v>1.007441047972158</v>
       </c>
       <c r="N23">
-        <v>1.014985686509934</v>
+        <v>1.00350909209968</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02809751420541</v>
+        <v>0.9779553054903444</v>
       </c>
       <c r="D24">
-        <v>1.035603041475341</v>
+        <v>1.00393898921854</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.042338760861345</v>
+        <v>1.001014693346946</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033236439743302</v>
+        <v>1.039963748748725</v>
       </c>
       <c r="J24">
-        <v>1.034340689734842</v>
+        <v>1.006329175669031</v>
       </c>
       <c r="K24">
-        <v>1.03897448874259</v>
+        <v>1.01789728310609</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.045686850185318</v>
+        <v>1.015024013234216</v>
       </c>
       <c r="N24">
-        <v>1.015399820717703</v>
+        <v>1.005833729111581</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030146505380753</v>
+        <v>0.9890101136825827</v>
       </c>
       <c r="D25">
-        <v>1.03717540941931</v>
+        <v>1.012325923345252</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.044265329768952</v>
+        <v>1.010925452297026</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033689412622373</v>
+        <v>1.043430168108311</v>
       </c>
       <c r="J25">
-        <v>1.035773563341537</v>
+        <v>1.013913077429331</v>
       </c>
       <c r="K25">
-        <v>1.040223622446544</v>
+        <v>1.024735861774644</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.047291490441604</v>
+        <v>1.023356499546182</v>
       </c>
       <c r="N25">
-        <v>1.015878214562136</v>
+        <v>1.008382634902921</v>
       </c>
     </row>
   </sheetData>
